--- a/Strojer_Images/Simple Dataset Copied/evaluations/resultsIoU50SplitAngle.xlsx
+++ b/Strojer_Images/Simple Dataset Copied/evaluations/resultsIoU50SplitAngle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="212">
   <si>
     <t xml:space="preserve">File Name</t>
   </si>
@@ -641,6 +641,21 @@
   </si>
   <si>
     <t xml:space="preserve">colorIMG_99.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images with perfect score</t>
   </si>
 </sst>
 </file>
@@ -740,13 +755,13 @@
   </sheetPr>
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B209" activeCellId="0" sqref="B209"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A195" activeCellId="0" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -4212,7 +4227,54 @@
         <v>7.14851485148515</v>
       </c>
     </row>
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <f aca="false">SUM(B2:B203)</f>
+        <v>1788</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <f aca="false">SUM(C2:C203)</f>
+        <v>106</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <f aca="false">SUM(D2:D203)</f>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <f aca="false">B205/(16*202)</f>
+        <v>0.553217821782178</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <f aca="false">B205/(C205+B205)</f>
+        <v>0.944033790918691</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <f aca="false">2*B206*B207/(B206+B207)</f>
+        <v>0.697619976589934</v>
+      </c>
+    </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>211</v>
+      </c>
       <c r="B209" s="0" t="n">
         <f aca="false">COUNTIF(B2:B203,16)</f>
         <v>27</v>
